--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_18-38.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_18-38.xlsx
@@ -287,6 +287,12 @@
     <t>13:0</t>
   </si>
   <si>
+    <t>ايزي سويت قطعه</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -306,6 +312,9 @@
   </si>
   <si>
     <t>0:27</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
     <t>سرنجات 10 سم</t>
@@ -2529,7 +2538,7 @@
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2549,13 +2558,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2567,7 +2576,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2575,13 +2584,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2607,11 +2616,11 @@
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>11.67</v>
+        <v>20</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2633,11 +2642,11 @@
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>28</v>
+        <v>11.67</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2645,7 +2654,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2653,17 +2662,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2671,7 +2680,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2679,17 +2688,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2705,17 +2714,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>133.65000000000001</v>
+        <v>20</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2723,7 +2732,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2731,13 +2740,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2749,7 +2758,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2757,17 +2766,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>50</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2775,7 +2784,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2783,13 +2792,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2801,7 +2810,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2809,17 +2818,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2827,7 +2836,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2835,13 +2844,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2853,7 +2862,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2861,51 +2870,103 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" ht="24.75" customHeight="1">
+      <c r="A79" s="6">
+        <v>76</v>
+      </c>
+      <c t="s" r="B79" s="7">
+        <v>113</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c t="s" r="H79" s="8">
+        <v>29</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="9">
+        <v>20</v>
+      </c>
+      <c r="M79" s="9"/>
+      <c t="s" r="N79" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" ht="25.5" customHeight="1">
+      <c r="A80" s="6">
+        <v>77</v>
+      </c>
+      <c t="s" r="B80" s="7">
+        <v>114</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c t="s" r="H80" s="8">
+        <v>33</v>
+      </c>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="9">
+        <v>80</v>
+      </c>
+      <c r="M80" s="9"/>
+      <c t="s" r="N80" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="79" ht="25.5" customHeight="1">
-      <c r="K79" s="10">
-        <v>3849.52</v>
-      </c>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="11">
-        <v>112</v>
-      </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c t="s" r="F80" s="12">
-        <v>113</v>
-      </c>
-      <c r="G80" s="12"/>
-      <c r="H80" s="13"/>
-      <c t="s" r="I80" s="14">
-        <v>114</v>
-      </c>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="K81" s="10">
+        <v>3904.52</v>
+      </c>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="11">
+        <v>115</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c t="s" r="F82" s="12">
+        <v>116</v>
+      </c>
+      <c r="G82" s="12"/>
+      <c r="H82" s="13"/>
+      <c t="s" r="I82" s="14">
+        <v>117</v>
+      </c>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="236">
+  <mergeCells count="242">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3138,10 +3199,16 @@
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="I80:N80"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="I82:N82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
